--- a/StructureDefinition-stroke-registry-organization-profile.xlsx
+++ b/StructureDefinition-stroke-registry-organization-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/StructureDefinition/stroke-registry-organization-profile</t>
+    <t>http://tecnomod-um.org/StructureDefinition/stroke-registry-organization-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
